--- a/ROOMS.xlsx
+++ b/ROOMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazeedalkhalaf/dev/my-projects/excel-rooms-converter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pewpewded/Desktop/excel-rooms-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35AAE41-1F4D-DF48-9425-4315D93F677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F5752-7D3B-6C45-92DD-DB1ABD661AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="880" windowWidth="34820" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tweeq-schedule" sheetId="2" r:id="rId1"/>
@@ -1951,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1963,11 +1963,10 @@
     <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2"/>
-    <col min="9" max="9" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1991,16 +1990,16 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -2014,11 +2013,11 @@
       <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2047,11 +2046,11 @@
       <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.4375</v>
       </c>
@@ -2080,11 +2079,11 @@
       <c r="F8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -2113,11 +2112,11 @@
       <c r="F10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2156,16 +2155,16 @@
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -2179,11 +2178,11 @@
       <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2197,11 +2196,11 @@
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.4375</v>
       </c>
@@ -2230,11 +2229,11 @@
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2242,11 +2241,11 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -2281,11 +2280,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.5625</v>
       </c>
@@ -2314,11 +2313,11 @@
       <c r="F25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -2338,16 +2337,16 @@
       <c r="G26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
@@ -2358,9 +2357,8 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -2376,16 +2374,16 @@
       <c r="G29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2426,11 +2424,11 @@
       <c r="F33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2445,7 +2443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.4375</v>
       </c>
@@ -2459,11 +2457,11 @@
       <c r="F35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.5625</v>
       </c>
@@ -2522,11 +2520,11 @@
       <c r="F39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
@@ -2537,9 +2535,8 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2555,16 +2552,16 @@
       <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2590,11 +2587,11 @@
       <c r="F46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.4375</v>
       </c>
@@ -2623,11 +2620,11 @@
       <c r="F48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2641,11 +2638,11 @@
       <c r="F49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -2674,11 +2671,11 @@
       <c r="F51" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2693,7 +2690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>0.5625</v>
       </c>
@@ -2707,11 +2704,11 @@
       <c r="F53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -2726,7 +2723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>0</v>
       </c>
@@ -2737,9 +2734,8 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2755,16 +2751,16 @@
       <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -2778,11 +2774,11 @@
       <c r="F60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>0.4375</v>
       </c>
@@ -2811,11 +2807,11 @@
       <c r="F62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2829,11 +2825,11 @@
       <c r="F63" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>0.5625</v>
       </c>
@@ -2877,11 +2873,11 @@
       <c r="F66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>0</v>
       </c>
@@ -2892,9 +2888,8 @@
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2910,16 +2905,16 @@
       <c r="G70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>0.4375</v>
       </c>
@@ -2948,11 +2943,11 @@
       <c r="F73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2966,11 +2961,11 @@
       <c r="F74" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -2985,7 +2980,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -2999,11 +2994,11 @@
       <c r="F76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3018,7 +3013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>0.5625</v>
       </c>
@@ -3032,11 +3027,11 @@
       <c r="F78" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3051,7 +3046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>0</v>
       </c>
@@ -3062,9 +3057,8 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3080,16 +3074,16 @@
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3097,11 +3091,11 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="I85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -3113,7 +3107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3125,7 +3119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>0.4375</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>0.4375</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -3178,11 +3172,11 @@
       <c r="F91" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3197,7 +3191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>0.5625</v>
       </c>
@@ -3211,11 +3205,11 @@
       <c r="F93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
@@ -3226,9 +3220,8 @@
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -3244,16 +3237,16 @@
       <c r="G97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3268,7 +3261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -3283,7 +3276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>0.4375</v>
       </c>
@@ -3297,11 +3290,11 @@
       <c r="F101" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3315,11 +3308,11 @@
       <c r="F102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3334,7 +3327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3349,7 +3342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>0.5625</v>
       </c>
@@ -3363,11 +3356,11 @@
       <c r="F105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3382,7 +3375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
@@ -3393,9 +3386,8 @@
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109"/>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -3411,16 +3403,16 @@
       <c r="G110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3435,7 +3427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -3449,11 +3441,11 @@
       <c r="F113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>0.4375</v>
       </c>
@@ -3467,11 +3459,11 @@
       <c r="F114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3485,11 +3477,11 @@
       <c r="F115" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -3503,11 +3495,11 @@
       <c r="F116" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3522,7 +3514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>0.5625</v>
       </c>
@@ -3536,11 +3528,11 @@
       <c r="F118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3554,11 +3546,11 @@
       <c r="F119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3573,7 +3565,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
@@ -3584,9 +3576,8 @@
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123"/>
-      <c r="I123"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -3602,16 +3593,16 @@
       <c r="G124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3625,11 +3616,11 @@
       <c r="F126" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -3643,11 +3634,11 @@
       <c r="F127" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -3662,7 +3653,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>0.4375</v>
       </c>
@@ -3676,11 +3667,11 @@
       <c r="F129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3694,11 +3685,11 @@
       <c r="F130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3713,7 +3704,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -3727,11 +3718,11 @@
       <c r="F132" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="H132" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3746,7 +3737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>0.5625</v>
       </c>
@@ -3760,11 +3751,11 @@
       <c r="F134" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3778,11 +3769,11 @@
       <c r="F135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -3797,7 +3788,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>0</v>
       </c>
@@ -3808,9 +3799,8 @@
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139"/>
-      <c r="I139"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>2</v>
       </c>
@@ -3826,16 +3816,16 @@
       <c r="G140" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -3849,11 +3839,11 @@
       <c r="F142" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -3867,11 +3857,11 @@
       <c r="F143" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -3886,7 +3876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>0.4375</v>
       </c>
@@ -3900,11 +3890,11 @@
       <c r="F145" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3918,11 +3908,11 @@
       <c r="F146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -3937,7 +3927,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -3951,11 +3941,11 @@
       <c r="F148" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -3970,7 +3960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>0.5625</v>
       </c>
@@ -3984,11 +3974,11 @@
       <c r="F150" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4008,11 +3998,11 @@
       <c r="G151" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>0</v>
       </c>
@@ -4023,9 +4013,8 @@
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154"/>
-      <c r="I154"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -4039,12 +4028,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>0.5625</v>
       </c>
@@ -4062,7 +4051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>0</v>
       </c>
@@ -4073,9 +4062,8 @@
       <c r="F160"/>
       <c r="G160"/>
       <c r="H160"/>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>2</v>
       </c>
@@ -4091,16 +4079,16 @@
       <c r="G161" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4112,7 +4100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -4126,11 +4114,11 @@
       <c r="F164" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -4145,7 +4133,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>0.4375</v>
       </c>
@@ -4159,11 +4147,11 @@
       <c r="F166" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4177,11 +4165,11 @@
       <c r="F167" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4196,7 +4184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -4210,11 +4198,11 @@
       <c r="F169" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -4229,7 +4217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>0.5625</v>
       </c>
@@ -4243,11 +4231,11 @@
       <c r="F171" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4258,11 +4246,11 @@
       <c r="F172" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I172" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4277,7 +4265,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>0</v>
       </c>
@@ -4288,9 +4276,8 @@
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176"/>
-      <c r="I176"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>2</v>
       </c>
@@ -4306,16 +4293,16 @@
       <c r="G177" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I177" s="2" t="s">
+      <c r="H177" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4329,11 +4316,11 @@
       <c r="F179" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="H179" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>0.4375</v>
       </c>
@@ -4347,11 +4334,11 @@
       <c r="F180" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="H180" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4365,11 +4352,11 @@
       <c r="F181" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4384,7 +4371,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -4398,11 +4385,11 @@
       <c r="F183" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I183" s="2" t="s">
+      <c r="H183" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -4417,7 +4404,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>0.5625</v>
       </c>
@@ -4431,11 +4418,11 @@
       <c r="F185" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4449,11 +4436,11 @@
       <c r="F186" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -4465,7 +4452,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
@@ -4473,9 +4460,8 @@
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190"/>
-      <c r="I190"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>2</v>
       </c>
@@ -4491,16 +4477,16 @@
       <c r="G191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4512,7 +4498,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4527,7 +4513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4539,7 +4525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -4554,7 +4540,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>0.4375</v>
       </c>
@@ -4568,11 +4554,11 @@
       <c r="F197" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I197" s="2" t="s">
+      <c r="H197" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4586,11 +4572,11 @@
       <c r="F198" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="H198" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4605,7 +4591,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -4619,11 +4605,11 @@
       <c r="F200" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I200" s="2" t="s">
+      <c r="H200" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -4638,7 +4624,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>0.5625</v>
       </c>
@@ -4652,11 +4638,11 @@
       <c r="F202" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I202" s="2" t="s">
+      <c r="H202" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4670,11 +4656,11 @@
       <c r="F203" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4689,7 +4675,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>0.6875</v>
       </c>
@@ -4697,11 +4683,11 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="C205" s="3"/>
-      <c r="I205" s="2" t="s">
+      <c r="H205" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>0.66666666666666663</v>
       </c>
@@ -4716,7 +4702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>0</v>
       </c>
@@ -4727,9 +4713,8 @@
       <c r="F209"/>
       <c r="G209"/>
       <c r="H209"/>
-      <c r="I209"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>2</v>
       </c>
@@ -4745,16 +4730,16 @@
       <c r="G210" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I210" s="2" t="s">
+      <c r="H210" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -4766,7 +4751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -4781,7 +4766,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>0.4375</v>
       </c>
@@ -4789,11 +4774,11 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C214" s="3"/>
-      <c r="I214" s="2" t="s">
+      <c r="H214" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>0.4375</v>
       </c>
@@ -4805,7 +4790,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -4820,7 +4805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -4828,11 +4813,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C217" s="3"/>
-      <c r="I217" s="2" t="s">
+      <c r="H217" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -4844,7 +4829,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4855,11 +4840,11 @@
       <c r="D219" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="H219" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -4871,7 +4856,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -4885,11 +4870,11 @@
       <c r="F221" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="H221" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>0</v>
       </c>
@@ -4900,9 +4885,8 @@
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224"/>
-      <c r="I224"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>2</v>
       </c>
@@ -4918,16 +4902,16 @@
       <c r="G225" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I225" s="2" t="s">
+      <c r="H225" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -4935,11 +4919,11 @@
         <v>0.4375</v>
       </c>
       <c r="C227" s="3"/>
-      <c r="I227" s="2" t="s">
+      <c r="H227" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>0.4375</v>
       </c>
@@ -4951,7 +4935,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -4963,7 +4947,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -4983,11 +4967,11 @@
       <c r="G230" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I230" s="2" t="s">
+      <c r="H230" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>0</v>
       </c>
@@ -4998,9 +4982,8 @@
       <c r="F233"/>
       <c r="G233"/>
       <c r="H233"/>
-      <c r="I233"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>2</v>
       </c>
@@ -5016,16 +4999,16 @@
       <c r="G234" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I234" s="2" t="s">
+      <c r="H234" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5037,7 +5020,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5048,11 +5031,11 @@
       <c r="F237" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I237" s="2" t="s">
+      <c r="H237" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5064,7 +5047,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>0.4375</v>
       </c>
@@ -5076,7 +5059,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5084,11 +5067,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C240" s="3"/>
-      <c r="I240" s="2" t="s">
+      <c r="H240" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5100,7 +5083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -5112,7 +5095,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5124,7 +5107,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -5136,7 +5119,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>0</v>
       </c>
@@ -5147,9 +5130,8 @@
       <c r="F246"/>
       <c r="G246"/>
       <c r="H246"/>
-      <c r="I246"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>2</v>
       </c>
@@ -5165,16 +5147,16 @@
       <c r="G247" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I247" s="2" t="s">
+      <c r="H247" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -5185,11 +5167,11 @@
       <c r="D249" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I249" s="2" t="s">
+      <c r="H249" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5204,7 +5186,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5212,11 +5194,11 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C251" s="3"/>
-      <c r="I251" s="2" t="s">
+      <c r="H251" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>0.4375</v>
       </c>
@@ -5230,11 +5212,11 @@
       <c r="F252" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I252" s="2" t="s">
+      <c r="H252" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5248,11 +5230,11 @@
       <c r="F253" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="H253" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5267,7 +5249,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5282,7 +5264,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>0.5625</v>
       </c>
@@ -5296,11 +5278,11 @@
       <c r="F256" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I256" s="2" t="s">
+      <c r="H256" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>0</v>
       </c>
@@ -5311,9 +5293,8 @@
       <c r="F259"/>
       <c r="G259"/>
       <c r="H259"/>
-      <c r="I259"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>2</v>
       </c>
@@ -5329,16 +5310,16 @@
       <c r="G260" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I260" s="2" t="s">
+      <c r="H260" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5353,7 +5334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5367,11 +5348,11 @@
       <c r="F263" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I263" s="2" t="s">
+      <c r="H263" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -5386,7 +5367,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>0.4375</v>
       </c>
@@ -5400,11 +5381,11 @@
       <c r="F265" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I265" s="2" t="s">
+      <c r="H265" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5419,7 +5400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -5427,11 +5408,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C267" s="3"/>
-      <c r="I267" s="2" t="s">
+      <c r="H267" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5446,7 +5427,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>0.5625</v>
       </c>
@@ -5460,11 +5441,11 @@
       <c r="F269" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I269" s="2" t="s">
+      <c r="H269" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>0</v>
       </c>
@@ -5475,9 +5456,8 @@
       <c r="F272"/>
       <c r="G272"/>
       <c r="H272"/>
-      <c r="I272"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>2</v>
       </c>
@@ -5493,16 +5473,16 @@
       <c r="G273" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5513,11 +5493,11 @@
       <c r="F275" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I275" s="2" t="s">
+      <c r="H275" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5532,7 +5512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>0.4375</v>
       </c>
@@ -5546,11 +5526,11 @@
       <c r="F277" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I277" s="2" t="s">
+      <c r="H277" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5565,7 +5545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>0.5625</v>
       </c>
@@ -5579,11 +5559,11 @@
       <c r="F279" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I279" s="2" t="s">
+      <c r="H279" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -5595,7 +5575,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -5609,11 +5589,11 @@
       <c r="F281" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I281" s="2" t="s">
+      <c r="H281" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
         <v>0</v>
       </c>
@@ -5624,9 +5604,8 @@
       <c r="F284"/>
       <c r="G284"/>
       <c r="H284"/>
-      <c r="I284"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>2</v>
       </c>
@@ -5642,16 +5621,16 @@
       <c r="G285" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I285" s="2" t="s">
+      <c r="H285" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5666,7 +5645,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5678,7 +5657,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>0.4375</v>
       </c>
@@ -5693,7 +5672,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5701,11 +5680,11 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C290" s="3"/>
-      <c r="I290" s="2" t="s">
+      <c r="H290" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5720,7 +5699,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5735,7 +5714,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>0.5625</v>
       </c>
@@ -5752,11 +5731,11 @@
       <c r="G293" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I293" s="2" t="s">
+      <c r="H293" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>0.5625</v>
       </c>
@@ -5768,7 +5747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -5788,11 +5767,11 @@
       <c r="G295" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I295" s="2" t="s">
+      <c r="H295" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>0</v>
       </c>
@@ -5803,9 +5782,8 @@
       <c r="F298"/>
       <c r="G298"/>
       <c r="H298"/>
-      <c r="I298"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>2</v>
       </c>
@@ -5821,16 +5799,16 @@
       <c r="G299" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I299" s="2" t="s">
+      <c r="H299" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -5842,7 +5820,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -5856,11 +5834,11 @@
       <c r="F302" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I302" s="2" t="s">
+      <c r="H302" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -5872,7 +5850,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>0.375</v>
       </c>
@@ -5884,7 +5862,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -5898,11 +5876,11 @@
       <c r="F305" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I305" s="2" t="s">
+      <c r="H305" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -5917,7 +5895,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>0.4375</v>
       </c>
@@ -5931,11 +5909,11 @@
       <c r="F307" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I307" s="2" t="s">
+      <c r="H307" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -5950,7 +5928,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -5958,11 +5936,11 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="I309" s="2" t="s">
+      <c r="H309" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -5974,7 +5952,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -5989,7 +5967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>0.5625</v>
       </c>
@@ -6000,11 +5978,11 @@
       <c r="F312" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I312" s="2" t="s">
+      <c r="H312" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -6018,11 +5996,11 @@
       <c r="F313" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I313" s="2" t="s">
+      <c r="H313" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -6036,11 +6014,11 @@
       <c r="F314" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I314" s="2" t="s">
+      <c r="H314" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B317" s="2" t="s">
         <v>0</v>
       </c>
@@ -6051,9 +6029,8 @@
       <c r="F317"/>
       <c r="G317"/>
       <c r="H317"/>
-      <c r="I317"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>2</v>
       </c>
@@ -6069,16 +6046,16 @@
       <c r="G318" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I318" s="2" t="s">
+      <c r="H318" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -6093,7 +6070,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -6107,11 +6084,11 @@
       <c r="F321" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I321" s="2" t="s">
+      <c r="H321" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -6126,7 +6103,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>0.4375</v>
       </c>
@@ -6140,11 +6117,11 @@
       <c r="F323" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I323" s="2" t="s">
+      <c r="H323" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6158,11 +6135,11 @@
       <c r="F324" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I324" s="2" t="s">
+      <c r="H324" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6177,7 +6154,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6192,7 +6169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>0.5625</v>
       </c>
@@ -6206,11 +6183,11 @@
       <c r="F327" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I327" s="2" t="s">
+      <c r="H327" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -6224,11 +6201,11 @@
       <c r="F328" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I328" s="2" t="s">
+      <c r="H328" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -6243,7 +6220,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
         <v>0</v>
       </c>
@@ -6254,9 +6231,8 @@
       <c r="F332"/>
       <c r="G332"/>
       <c r="H332"/>
-      <c r="I332"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>2</v>
       </c>
@@ -6272,16 +6248,16 @@
       <c r="G333" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I333" s="2" t="s">
+      <c r="H333" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -6295,11 +6271,11 @@
       <c r="F335" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I335" s="2" t="s">
+      <c r="H335" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -6311,7 +6287,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -6323,7 +6299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>0.4375</v>
       </c>
@@ -6337,11 +6313,11 @@
       <c r="F338" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I338" s="2" t="s">
+      <c r="H338" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6355,11 +6331,11 @@
       <c r="F339" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I339" s="2" t="s">
+      <c r="H339" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6374,7 +6350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -6388,11 +6364,11 @@
       <c r="F341" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I341" s="2" t="s">
+      <c r="H341" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6407,7 +6383,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="3">
         <v>0.5625</v>
       </c>
@@ -6421,11 +6397,11 @@
       <c r="F343" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I343" s="2" t="s">
+      <c r="H343" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B346" s="2" t="s">
         <v>0</v>
       </c>
@@ -6436,9 +6412,8 @@
       <c r="F346"/>
       <c r="G346"/>
       <c r="H346"/>
-      <c r="I346"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>2</v>
       </c>
@@ -6454,16 +6429,16 @@
       <c r="G347" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I347" s="2" t="s">
+      <c r="H347" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -6475,7 +6450,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -6487,7 +6462,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>0.375</v>
       </c>
@@ -6499,7 +6474,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -6511,7 +6486,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -6526,7 +6501,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="3">
         <v>0.4375</v>
       </c>
@@ -6540,11 +6515,11 @@
       <c r="F354" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I354" s="2" t="s">
+      <c r="H354" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6552,11 +6527,11 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C355" s="3"/>
-      <c r="I355" s="2" t="s">
+      <c r="H355" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6571,7 +6546,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6586,7 +6561,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6601,7 +6576,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>0.5625</v>
       </c>
@@ -6615,11 +6590,11 @@
       <c r="F359" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I359" s="2" t="s">
+      <c r="H359" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -6634,7 +6609,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B363" s="2" t="s">
         <v>0</v>
       </c>
@@ -6645,9 +6620,8 @@
       <c r="F363"/>
       <c r="G363"/>
       <c r="H363"/>
-      <c r="I363"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>2</v>
       </c>
@@ -6663,16 +6637,16 @@
       <c r="G364" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I364" s="2" t="s">
+      <c r="H364" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -6684,7 +6658,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -6698,11 +6672,11 @@
       <c r="F367" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I367" s="2" t="s">
+      <c r="H367" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -6714,7 +6688,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="3">
         <v>0.375</v>
       </c>
@@ -6726,7 +6700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -6740,11 +6714,11 @@
       <c r="F370" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I370" s="2" t="s">
+      <c r="H370" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>0.4375</v>
       </c>
@@ -6758,11 +6732,11 @@
       <c r="F371" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I371" s="2" t="s">
+      <c r="H371" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6776,11 +6750,11 @@
       <c r="F372" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I372" s="2" t="s">
+      <c r="H372" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -6792,7 +6766,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -6804,7 +6778,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -6816,7 +6790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6831,7 +6805,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -6845,11 +6819,11 @@
       <c r="F377" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I377" s="2" t="s">
+      <c r="H377" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -6863,11 +6837,11 @@
       <c r="F378" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="I378" s="2" t="s">
+      <c r="H378" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B381" s="2" t="s">
         <v>0</v>
       </c>
@@ -6878,9 +6852,8 @@
       <c r="F381"/>
       <c r="G381"/>
       <c r="H381"/>
-      <c r="I381"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>2</v>
       </c>
@@ -6896,16 +6869,16 @@
       <c r="G382" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I382" s="2" t="s">
+      <c r="H382" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -6920,7 +6893,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -6935,7 +6908,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="3">
         <v>0.4375</v>
       </c>
@@ -6943,11 +6916,11 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C386" s="3"/>
-      <c r="I386" s="2" t="s">
+      <c r="H386" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -6962,7 +6935,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -6977,7 +6950,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -6992,7 +6965,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="3">
         <v>0.5625</v>
       </c>
@@ -7006,11 +6979,11 @@
       <c r="F390" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I390" s="2" t="s">
+      <c r="H390" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7021,11 +6994,11 @@
       <c r="D391" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I391" s="2" t="s">
+      <c r="H391" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B394" s="2" t="s">
         <v>0</v>
       </c>
@@ -7036,9 +7009,8 @@
       <c r="F394"/>
       <c r="G394"/>
       <c r="H394"/>
-      <c r="I394"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>2</v>
       </c>
@@ -7054,16 +7026,16 @@
       <c r="G395" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I395" s="2" t="s">
+      <c r="H395" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="3">
         <v>0.375</v>
       </c>
@@ -7078,7 +7050,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7090,7 +7062,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>0.4375</v>
       </c>
@@ -7101,11 +7073,11 @@
       <c r="F399" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I399" s="2" t="s">
+      <c r="H399" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>0.4375</v>
       </c>
@@ -7120,7 +7092,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="3">
         <v>0.5</v>
       </c>
@@ -7135,7 +7107,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="3">
         <v>0.5625</v>
       </c>
@@ -7155,11 +7127,11 @@
       <c r="G402" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I402" s="2" t="s">
+      <c r="H402" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7173,11 +7145,11 @@
       <c r="F403" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I403" s="2" t="s">
+      <c r="H403" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B406" s="2" t="s">
         <v>0</v>
       </c>
@@ -7188,9 +7160,8 @@
       <c r="F406"/>
       <c r="G406"/>
       <c r="H406"/>
-      <c r="I406"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>2</v>
       </c>
@@ -7206,16 +7177,16 @@
       <c r="G407" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I407" s="2" t="s">
+      <c r="H407" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
         <v>0.375</v>
       </c>
@@ -7230,7 +7201,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="3">
         <v>0.4375</v>
       </c>
@@ -7244,11 +7215,11 @@
       <c r="F410" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I410" s="2" t="s">
+      <c r="H410" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -7260,7 +7231,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>0.5</v>
       </c>
@@ -7278,7 +7249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7293,7 +7264,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="3">
         <v>0.5625</v>
       </c>
@@ -7308,7 +7279,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7316,11 +7287,11 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="C415" s="3"/>
-      <c r="I415" s="2" t="s">
+      <c r="H415" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B418" s="2" t="s">
         <v>0</v>
       </c>
@@ -7331,9 +7302,8 @@
       <c r="F418"/>
       <c r="G418"/>
       <c r="H418"/>
-      <c r="I418"/>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>2</v>
       </c>
@@ -7349,16 +7319,16 @@
       <c r="G419" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I419" s="2" t="s">
+      <c r="H419" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -7373,7 +7343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7388,7 +7358,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -7400,7 +7370,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>0.3888888888888889</v>
       </c>
@@ -7408,11 +7378,11 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C424" s="3"/>
-      <c r="I424" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -7427,7 +7397,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -7439,7 +7409,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>0.5</v>
       </c>
@@ -7451,7 +7421,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7466,7 +7436,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="3">
         <v>0.5625</v>
       </c>
@@ -7478,7 +7448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7490,7 +7460,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -7502,7 +7472,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>0.6875</v>
       </c>
@@ -7514,7 +7484,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B435" s="2" t="s">
         <v>0</v>
       </c>
@@ -7525,9 +7495,8 @@
       <c r="F435"/>
       <c r="G435"/>
       <c r="H435"/>
-      <c r="I435"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>2</v>
       </c>
@@ -7543,16 +7512,16 @@
       <c r="G436" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I436" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -7567,7 +7536,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7575,11 +7544,11 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C439" s="3"/>
-      <c r="I439" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7594,7 +7563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -7609,7 +7578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7621,7 +7590,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>0.5625</v>
       </c>
@@ -7629,11 +7598,11 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C443" s="3"/>
-      <c r="I443" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7645,7 +7614,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -7657,7 +7626,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="3">
         <v>0.625</v>
       </c>
@@ -7669,7 +7638,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -7677,11 +7646,11 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="C447" s="3"/>
-      <c r="I447" s="2" t="s">
+      <c r="H447" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -7693,7 +7662,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B451" s="2" t="s">
         <v>0</v>
       </c>
@@ -7704,9 +7673,8 @@
       <c r="F451"/>
       <c r="G451"/>
       <c r="H451"/>
-      <c r="I451"/>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>2</v>
       </c>
@@ -7722,16 +7690,16 @@
       <c r="G452" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I452" s="2" t="s">
+      <c r="H452" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -7739,11 +7707,11 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="C454" s="3"/>
-      <c r="I454" s="2" t="s">
+      <c r="H454" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7764,7 +7732,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -7776,7 +7744,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7788,7 +7756,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7800,7 +7768,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>0.5625</v>
       </c>
@@ -7814,11 +7782,11 @@
       <c r="F459" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I459" s="2" t="s">
+      <c r="H459" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -7830,7 +7798,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="3">
         <v>0.64583333333333337</v>
       </c>
@@ -7841,11 +7809,11 @@
       <c r="F461" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I461" s="2" t="s">
+      <c r="H461" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B464" s="2" t="s">
         <v>0</v>
       </c>
@@ -7856,9 +7824,8 @@
       <c r="F464"/>
       <c r="G464"/>
       <c r="H464"/>
-      <c r="I464"/>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>2</v>
       </c>
@@ -7875,12 +7842,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>0.39583333333333331</v>
       </c>
@@ -7895,7 +7862,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -7910,7 +7877,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="3">
         <v>0.5625</v>
       </c>
@@ -7925,7 +7892,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B472" s="2" t="s">
         <v>0</v>
       </c>
@@ -7936,9 +7903,8 @@
       <c r="F472"/>
       <c r="G472"/>
       <c r="H472"/>
-      <c r="I472"/>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>2</v>
       </c>
@@ -7954,16 +7920,16 @@
       <c r="G473" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I473" s="2" t="s">
+      <c r="H473" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="3">
         <v>0.375</v>
       </c>
@@ -7978,7 +7944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="3">
         <v>0.4375</v>
       </c>
@@ -7989,11 +7955,11 @@
       <c r="F476" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I476" s="2" t="s">
+      <c r="H476" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>0.5625</v>
       </c>
@@ -8014,7 +7980,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B480" s="2" t="s">
         <v>0</v>
       </c>
@@ -8025,9 +7991,8 @@
       <c r="F480"/>
       <c r="G480"/>
       <c r="H480"/>
-      <c r="I480"/>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>2</v>
       </c>
@@ -8043,16 +8008,16 @@
       <c r="G481" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I481" s="2" t="s">
+      <c r="H481" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="3">
         <v>0.35416666666666669</v>
       </c>
@@ -8067,7 +8032,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -8082,7 +8047,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -8090,11 +8055,11 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C485" s="3"/>
-      <c r="I485" s="2" t="s">
+      <c r="H485" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -8115,7 +8080,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B489" s="2" t="s">
         <v>0</v>
       </c>
@@ -8126,9 +8091,8 @@
       <c r="F489"/>
       <c r="G489"/>
       <c r="H489"/>
-      <c r="I489"/>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>2</v>
       </c>
@@ -8145,12 +8109,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -8165,7 +8129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -8180,7 +8144,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>0.4375</v>
       </c>
@@ -8195,7 +8159,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="3">
         <v>0.5625</v>
       </c>
@@ -8210,7 +8174,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B498" s="2" t="s">
         <v>0</v>
       </c>
@@ -8221,9 +8185,8 @@
       <c r="F498"/>
       <c r="G498"/>
       <c r="H498"/>
-      <c r="I498"/>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>2</v>
       </c>
@@ -8240,12 +8203,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>0.4375</v>
       </c>
@@ -8257,7 +8220,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>0.52083333333333337</v>
       </c>
@@ -8272,7 +8235,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="3">
         <v>0.54166666666666663</v>
       </c>
@@ -8287,7 +8250,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B506" s="2" t="s">
         <v>0</v>
       </c>
@@ -8298,9 +8261,8 @@
       <c r="F506"/>
       <c r="G506"/>
       <c r="H506"/>
-      <c r="I506"/>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>2</v>
       </c>
@@ -8317,12 +8279,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -8337,7 +8299,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>0.5625</v>
       </c>

--- a/ROOMS.xlsx
+++ b/ROOMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pewpewded/Desktop/excel-rooms-converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F5752-7D3B-6C45-92DD-DB1ABD661AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF80A8A0-483D-024A-9AC4-CA88BE75DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="371">
   <si>
     <t>Room:</t>
   </si>
@@ -1130,6 +1130,9 @@
   </si>
   <si>
     <t>97 PHY 203 | 126 PHY 203</t>
+  </si>
+  <si>
+    <t>G120</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J194" sqref="J194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4453,8 +4456,12 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B190"/>
-      <c r="C190"/>
+      <c r="B190" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="D190"/>
       <c r="E190"/>
       <c r="F190"/>
